--- a/stone-list/src/assets/StoneList.xlsx
+++ b/stone-list/src/assets/StoneList.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -44,25 +44,7 @@
         <color indexed="11"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://drive.google.com/file/d/163WaD1wRvTiDKuQ9kv49WbAxvxx6UvuJ/view?usp=drive_link,https://drive.google.com/file/d/1Po_rSDcHlROMzJjCHxL9RxcWWEDOTIXS/view?usp=drive_link</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>]</t>
+      <t>[https://drive.google.com/file/d/163WaD1wRvTiDKuQ9kv49WbAxvxx6UvuJ/view?usp=drive_link]</t>
     </r>
   </si>
   <si>
@@ -110,6 +92,95 @@
       <t>]</t>
     </r>
   </si>
+  <si>
+    <t>Ruby</t>
+  </si>
+  <si>
+    <t>Natural Ruby(Red)</t>
+  </si>
+  <si>
+    <t>USD - 800000</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://drive.google.com/file/d/1HL1Gn3yUoyqmrJ_LU_qViSKwBtLHNC4e/view</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://drive.google.com/file/d/18deHpfcikcx4GO70jTgX4PLmOTExeQo6/view?usp=sharing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>Star Ruby</t>
+  </si>
+  <si>
+    <t>Natural</t>
+  </si>
+  <si>
+    <t>USD - 2000 per carat</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://drive.google.com/file/d/1u1-T97izO8xrsLZrSrDaBvWhJugI2_mJ/view?usp=drive_link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -118,7 +189,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -146,12 +217,6 @@
       <color indexed="12"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -167,7 +232,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -190,13 +255,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -207,6 +309,21 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1261,17 +1378,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="12.6719" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="1" customWidth="1"/>
+    <col min="1" max="6" width="12.6719" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="12.6719" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" ht="29.65" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
@@ -1287,8 +1404,9 @@
       <c r="E1" t="s" s="2">
         <v>4</v>
       </c>
+      <c r="F1" s="2"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" ht="29.65" customHeight="1">
       <c r="A2" t="s" s="2">
         <v>5</v>
       </c>
@@ -1304,11 +1422,49 @@
       <c r="E2" t="s" s="3">
         <v>9</v>
       </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" ht="25.7" customHeight="1">
+      <c r="A3" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" ht="25.7" customHeight="1">
+      <c r="A4" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s" s="8">
+        <v>17</v>
+      </c>
+      <c r="F4" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" location="" tooltip="" display="[https://drive.google.com/file/d/163WaD1wRvTiDKuQ9kv49WbAxvxx6UvuJ/view?usp=drive_link,https://drive.google.com/file/d/1Po_rSDcHlROMzJjCHxL9RxcWWEDOTIXS/view?usp=drive_link]"/>
+    <hyperlink ref="D2" r:id="rId1" location="" tooltip="" display="[https://drive.google.com/file/d/163WaD1wRvTiDKuQ9kv49WbAxvxx6UvuJ/view?usp=drive_link]"/>
     <hyperlink ref="E2" r:id="rId2" location="" tooltip="" display="[https://drive.google.com/file/d/1QlbeSo6yZS_yZcUyHYvljNWTPoKWR8tW/view?usp=drive_link,https://drive.google.com/file/d/1cHK-heO5NWAYGS6qdqt2_-sZzYvPAlI9/view?usp=drive_link]"/>
+    <hyperlink ref="D3" r:id="rId3" location="" tooltip="" display="[https://drive.google.com/file/d/1HL1Gn3yUoyqmrJ_LU_qViSKwBtLHNC4e/view, https://drive.google.com/file/d/18deHpfcikcx4GO70jTgX4PLmOTExeQo6/view?usp=sharing]"/>
+    <hyperlink ref="D4" r:id="rId4" location="" tooltip="" display="https://drive.google.com/file/d/1u1-T97izO8xrsLZrSrDaBvWhJugI2_mJ/view?usp=drive_link"/>
+    <hyperlink ref="E4" r:id="rId5" location="" tooltip="" display="https://drive.google.com/file/d/1u1-T97izO8xrsLZrSrDaBvWhJugI2_mJ/view?usp=drive_link"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/stone-list/src/assets/StoneList.xlsx
+++ b/stone-list/src/assets/StoneList.xlsx
@@ -149,10 +149,10 @@
     <t>Star Ruby</t>
   </si>
   <si>
-    <t>Natural</t>
-  </si>
-  <si>
-    <t>USD - 2000 per carat</t>
+    <t>Natural 40 carat</t>
+  </si>
+  <si>
+    <t>USD - 20000 per carat</t>
   </si>
   <si>
     <r>
@@ -1463,8 +1463,8 @@
     <hyperlink ref="D2" r:id="rId1" location="" tooltip="" display="[https://drive.google.com/file/d/163WaD1wRvTiDKuQ9kv49WbAxvxx6UvuJ/view?usp=drive_link]"/>
     <hyperlink ref="E2" r:id="rId2" location="" tooltip="" display="[https://drive.google.com/file/d/1QlbeSo6yZS_yZcUyHYvljNWTPoKWR8tW/view?usp=drive_link,https://drive.google.com/file/d/1cHK-heO5NWAYGS6qdqt2_-sZzYvPAlI9/view?usp=drive_link]"/>
     <hyperlink ref="D3" r:id="rId3" location="" tooltip="" display="[https://drive.google.com/file/d/1HL1Gn3yUoyqmrJ_LU_qViSKwBtLHNC4e/view, https://drive.google.com/file/d/18deHpfcikcx4GO70jTgX4PLmOTExeQo6/view?usp=sharing]"/>
-    <hyperlink ref="D4" r:id="rId4" location="" tooltip="" display="https://drive.google.com/file/d/1u1-T97izO8xrsLZrSrDaBvWhJugI2_mJ/view?usp=drive_link"/>
-    <hyperlink ref="E4" r:id="rId5" location="" tooltip="" display="https://drive.google.com/file/d/1u1-T97izO8xrsLZrSrDaBvWhJugI2_mJ/view?usp=drive_link"/>
+    <hyperlink ref="D4" r:id="rId4" location="" tooltip="" display="[https://drive.google.com/file/d/1u1-T97izO8xrsLZrSrDaBvWhJugI2_mJ/view?usp=drive_link]"/>
+    <hyperlink ref="E4" r:id="rId5" location="" tooltip="" display="[https://drive.google.com/file/d/1u1-T97izO8xrsLZrSrDaBvWhJugI2_mJ/view?usp=drive_link]"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/stone-list/src/assets/StoneList.xlsx
+++ b/stone-list/src/assets/StoneList.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -149,7 +149,7 @@
     <t>Star Ruby</t>
   </si>
   <si>
-    <t>Natural 40 carat</t>
+    <t>Natural, 40 carats</t>
   </si>
   <si>
     <t>USD - 20000 per carat</t>
@@ -171,6 +171,83 @@
         <rFont val="Arial"/>
       </rPr>
       <t>https://drive.google.com/file/d/1u1-T97izO8xrsLZrSrDaBvWhJugI2_mJ/view?usp=drive_link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural, 340 carats, 140 pieces </t>
+  </si>
+  <si>
+    <t>USD - 1.16 millions</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://drive.google.com/file/d/1v04A7UvPZWZ2dcQi8NqZCCl9rftp0LhI/view?usp=drive_link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://drive.google.com/file/d/1Qz87HBtMI1m3VPd8xet7MDFmfROFrDXh/view?usp=drive_link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://drive.google.com/file/d/1bM8Eu8EWnR2-THYjZxy5s1vljDT_njFc/view?usp=drive_link</t>
     </r>
     <r>
       <rPr>
@@ -1378,7 +1455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1458,6 +1535,24 @@
       </c>
       <c r="F4" s="7"/>
     </row>
+    <row r="5" ht="13.65" customHeight="1">
+      <c r="A5" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s" s="5">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" location="" tooltip="" display="[https://drive.google.com/file/d/163WaD1wRvTiDKuQ9kv49WbAxvxx6UvuJ/view?usp=drive_link]"/>
@@ -1465,6 +1560,8 @@
     <hyperlink ref="D3" r:id="rId3" location="" tooltip="" display="[https://drive.google.com/file/d/1HL1Gn3yUoyqmrJ_LU_qViSKwBtLHNC4e/view, https://drive.google.com/file/d/18deHpfcikcx4GO70jTgX4PLmOTExeQo6/view?usp=sharing]"/>
     <hyperlink ref="D4" r:id="rId4" location="" tooltip="" display="[https://drive.google.com/file/d/1u1-T97izO8xrsLZrSrDaBvWhJugI2_mJ/view?usp=drive_link]"/>
     <hyperlink ref="E4" r:id="rId5" location="" tooltip="" display="[https://drive.google.com/file/d/1u1-T97izO8xrsLZrSrDaBvWhJugI2_mJ/view?usp=drive_link]"/>
+    <hyperlink ref="D5" r:id="rId6" location="" tooltip="" display="https://drive.google.com/file/d/1v04A7UvPZWZ2dcQi8NqZCCl9rftp0LhI/view?usp=drive_link"/>
+    <hyperlink ref="E5" r:id="rId7" location="" tooltip="" display="https://drive.google.com/file/d/1Qz87HBtMI1m3VPd8xet7MDFmfROFrDXh/view?usp=drive_link"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/stone-list/src/assets/StoneList.xlsx
+++ b/stone-list/src/assets/StoneList.xlsx
@@ -1560,8 +1560,8 @@
     <hyperlink ref="D3" r:id="rId3" location="" tooltip="" display="[https://drive.google.com/file/d/1HL1Gn3yUoyqmrJ_LU_qViSKwBtLHNC4e/view, https://drive.google.com/file/d/18deHpfcikcx4GO70jTgX4PLmOTExeQo6/view?usp=sharing]"/>
     <hyperlink ref="D4" r:id="rId4" location="" tooltip="" display="[https://drive.google.com/file/d/1u1-T97izO8xrsLZrSrDaBvWhJugI2_mJ/view?usp=drive_link]"/>
     <hyperlink ref="E4" r:id="rId5" location="" tooltip="" display="[https://drive.google.com/file/d/1u1-T97izO8xrsLZrSrDaBvWhJugI2_mJ/view?usp=drive_link]"/>
-    <hyperlink ref="D5" r:id="rId6" location="" tooltip="" display="https://drive.google.com/file/d/1v04A7UvPZWZ2dcQi8NqZCCl9rftp0LhI/view?usp=drive_link"/>
-    <hyperlink ref="E5" r:id="rId7" location="" tooltip="" display="https://drive.google.com/file/d/1Qz87HBtMI1m3VPd8xet7MDFmfROFrDXh/view?usp=drive_link"/>
+    <hyperlink ref="D5" r:id="rId6" location="" tooltip="" display="[https://drive.google.com/file/d/1v04A7UvPZWZ2dcQi8NqZCCl9rftp0LhI/view?usp=drive_link]"/>
+    <hyperlink ref="E5" r:id="rId7" location="" tooltip="" display="[https://drive.google.com/file/d/1Qz87HBtMI1m3VPd8xet7MDFmfROFrDXh/view?usp=drive_link,https://drive.google.com/file/d/1bM8Eu8EWnR2-THYjZxy5s1vljDT_njFc/view?usp=drive_link]"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/stone-list/src/assets/StoneList.xlsx
+++ b/stone-list/src/assets/StoneList.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Sapphire</t>
   </si>
   <si>
-    <t>Rare</t>
+    <t>Natural Rare</t>
   </si>
   <si>
     <t>USD - 250000</t>
@@ -256,6 +256,52 @@
         <rFont val="Arial"/>
       </rPr>
       <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>Star Sapphire</t>
+  </si>
+  <si>
+    <t>Natural, the big one is 100 carat &amp; the small one is 45 carat</t>
+  </si>
+  <si>
+    <t>USD - 300000</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://drive.google.com/file/d/1QKl4YoyUcvjKQ1jHck51mCcWG7YoJLly/view?usp=drive_link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>[https://drive.google.com/file/d/1tST6Mu0bNJZRZV4utlJh13deM-gYRRSL/view?usp=drive_link,https://drive.google.com/file/d/13_NA1H8t85PFXONh5AN9Ti7RbbM3EKcE/view?usp=drive_link]</t>
     </r>
   </si>
 </sst>
@@ -1455,7 +1501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1553,6 +1599,24 @@
       </c>
       <c r="F5" s="6"/>
     </row>
+    <row r="6" ht="13.65" customHeight="1">
+      <c r="A6" t="s" s="4">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s" s="5">
+        <v>26</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" location="" tooltip="" display="[https://drive.google.com/file/d/163WaD1wRvTiDKuQ9kv49WbAxvxx6UvuJ/view?usp=drive_link]"/>
@@ -1562,6 +1626,8 @@
     <hyperlink ref="E4" r:id="rId5" location="" tooltip="" display="[https://drive.google.com/file/d/1u1-T97izO8xrsLZrSrDaBvWhJugI2_mJ/view?usp=drive_link]"/>
     <hyperlink ref="D5" r:id="rId6" location="" tooltip="" display="[https://drive.google.com/file/d/1v04A7UvPZWZ2dcQi8NqZCCl9rftp0LhI/view?usp=drive_link]"/>
     <hyperlink ref="E5" r:id="rId7" location="" tooltip="" display="[https://drive.google.com/file/d/1Qz87HBtMI1m3VPd8xet7MDFmfROFrDXh/view?usp=drive_link,https://drive.google.com/file/d/1bM8Eu8EWnR2-THYjZxy5s1vljDT_njFc/view?usp=drive_link]"/>
+    <hyperlink ref="D6" r:id="rId8" location="" tooltip="" display="[https://drive.google.com/file/d/1QKl4YoyUcvjKQ1jHck51mCcWG7YoJLly/view?usp=drive_link]"/>
+    <hyperlink ref="E6" r:id="rId9" location="" tooltip="" display="[https://drive.google.com/file/d/1tST6Mu0bNJZRZV4utlJh13deM-gYRRSL/view?usp=drive_link,https://drive.google.com/file/d/13_NA1H8t85PFXONh5AN9Ti7RbbM3EKcE/view?usp=drive_link]"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/stone-list/src/assets/StoneList.xlsx
+++ b/stone-list/src/assets/StoneList.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>Name</t>
   </si>
@@ -28,6 +28,9 @@
     <t>Videos</t>
   </si>
   <si>
+    <t>Files</t>
+  </si>
+  <si>
     <t>Sapphire</t>
   </si>
   <si>
@@ -302,6 +305,64 @@
         <rFont val="Arial"/>
       </rPr>
       <t>[https://drive.google.com/file/d/1tST6Mu0bNJZRZV4utlJh13deM-gYRRSL/view?usp=drive_link,https://drive.google.com/file/d/13_NA1H8t85PFXONh5AN9Ti7RbbM3EKcE/view?usp=drive_link]</t>
+    </r>
+  </si>
+  <si>
+    <t>Ruby Necklace</t>
+  </si>
+  <si>
+    <t>Natural (33 pieces) some are Red &amp; some are Pigeon Blood color</t>
+  </si>
+  <si>
+    <t>USD - 4 millions</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>[https://drive.google.com/file/d/1wBiiQ9sF0-rWSixLS3qtCamImi_FIiKi/view?usp=drive_link]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://drive.google.com/file/d/1k9fM7cg01YITiitPDL6Jda50TLNYT0NO/view?usp=drive_link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>[https://drive.google.com/file/d/1hl6d9iMoFpet0_Y8u9n6TG5qcMScUp57/view?usp=drive_link]</t>
     </r>
   </si>
 </sst>
@@ -421,7 +482,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -448,6 +509,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1501,13 +1565,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="6" width="12.6719" style="1" customWidth="1"/>
+    <col min="1" max="3" width="12.6719" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.3984" style="1" customWidth="1"/>
+    <col min="5" max="6" width="12.6719" style="1" customWidth="1"/>
     <col min="7" max="16384" width="12.6719" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1527,95 +1593,117 @@
       <c r="E1" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" ht="29.65" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" ht="25.7" customHeight="1">
       <c r="A3" t="s" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s" s="5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="7"/>
     </row>
     <row r="4" ht="25.7" customHeight="1">
       <c r="A4" t="s" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s" s="5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="7"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
       <c r="A5" t="s" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s" s="5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s" s="5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s" s="5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s" s="5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="6"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
       <c r="A6" t="s" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s" s="5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s" s="5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s" s="5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" s="6"/>
+    </row>
+    <row r="7" ht="46.65" customHeight="1">
+      <c r="A7" t="s" s="4">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s" s="5">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s" s="5">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s" s="9">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s" s="5">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s" s="8">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1628,6 +1716,9 @@
     <hyperlink ref="E5" r:id="rId7" location="" tooltip="" display="[https://drive.google.com/file/d/1Qz87HBtMI1m3VPd8xet7MDFmfROFrDXh/view?usp=drive_link,https://drive.google.com/file/d/1bM8Eu8EWnR2-THYjZxy5s1vljDT_njFc/view?usp=drive_link]"/>
     <hyperlink ref="D6" r:id="rId8" location="" tooltip="" display="[https://drive.google.com/file/d/1QKl4YoyUcvjKQ1jHck51mCcWG7YoJLly/view?usp=drive_link]"/>
     <hyperlink ref="E6" r:id="rId9" location="" tooltip="" display="[https://drive.google.com/file/d/1tST6Mu0bNJZRZV4utlJh13deM-gYRRSL/view?usp=drive_link,https://drive.google.com/file/d/13_NA1H8t85PFXONh5AN9Ti7RbbM3EKcE/view?usp=drive_link]"/>
+    <hyperlink ref="D7" r:id="rId10" location="" tooltip="" display="[https://drive.google.com/file/d/1wBiiQ9sF0-rWSixLS3qtCamImi_FIiKi/view?usp=drive_link]"/>
+    <hyperlink ref="E7" r:id="rId11" location="" tooltip="" display="https://drive.google.com/file/d/1k9fM7cg01YITiitPDL6Jda50TLNYT0NO/view?usp=drive_link"/>
+    <hyperlink ref="F7" r:id="rId12" location="" tooltip="" display="[https://drive.google.com/file/d/1hl6d9iMoFpet0_Y8u9n6TG5qcMScUp57/view?usp=drive_link]"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/stone-list/src/assets/StoneList.xlsx
+++ b/stone-list/src/assets/StoneList.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Files</t>
   </si>
   <si>
-    <t>Sapphire</t>
+    <t>Colour-Change Sapphire</t>
   </si>
   <si>
     <t>Natural Rare</t>
@@ -363,6 +363,69 @@
         <rFont val="Arial"/>
       </rPr>
       <t>[https://drive.google.com/file/d/1hl6d9iMoFpet0_Y8u9n6TG5qcMScUp57/view?usp=drive_link]</t>
+    </r>
+  </si>
+  <si>
+    <t>Tourmaline</t>
+  </si>
+  <si>
+    <t>Natural, 3738 carats</t>
+  </si>
+  <si>
+    <t>USD - 25000</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://drive.google.com/file/d/1aLPJ8nP2MiZ05vM0NWuQeG-SZeJBvyzr/view?usp=drive_link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://drive.google.com/file/d/1bu0i_GUWKQgUyzc59KgBOZ1rC6xyEN3B/view?usp=drive_link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>]</t>
     </r>
   </si>
 </sst>
@@ -482,7 +545,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -512,6 +575,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1565,14 +1631,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="3" width="12.6719" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.3984" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.3516" style="1" customWidth="1"/>
     <col min="5" max="6" width="12.6719" style="1" customWidth="1"/>
     <col min="7" max="16384" width="12.6719" style="1" customWidth="1"/>
   </cols>
@@ -1704,6 +1770,24 @@
       <c r="F7" t="s" s="8">
         <v>33</v>
       </c>
+    </row>
+    <row r="8" ht="13.65" customHeight="1">
+      <c r="A8" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s" s="5">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s" s="5">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s" s="5">
+        <v>38</v>
+      </c>
+      <c r="F8" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1717,8 +1801,10 @@
     <hyperlink ref="D6" r:id="rId8" location="" tooltip="" display="[https://drive.google.com/file/d/1QKl4YoyUcvjKQ1jHck51mCcWG7YoJLly/view?usp=drive_link]"/>
     <hyperlink ref="E6" r:id="rId9" location="" tooltip="" display="[https://drive.google.com/file/d/1tST6Mu0bNJZRZV4utlJh13deM-gYRRSL/view?usp=drive_link,https://drive.google.com/file/d/13_NA1H8t85PFXONh5AN9Ti7RbbM3EKcE/view?usp=drive_link]"/>
     <hyperlink ref="D7" r:id="rId10" location="" tooltip="" display="[https://drive.google.com/file/d/1wBiiQ9sF0-rWSixLS3qtCamImi_FIiKi/view?usp=drive_link]"/>
-    <hyperlink ref="E7" r:id="rId11" location="" tooltip="" display="https://drive.google.com/file/d/1k9fM7cg01YITiitPDL6Jda50TLNYT0NO/view?usp=drive_link"/>
+    <hyperlink ref="E7" r:id="rId11" location="" tooltip="" display="[https://drive.google.com/file/d/1k9fM7cg01YITiitPDL6Jda50TLNYT0NO/view?usp=drive_link]"/>
     <hyperlink ref="F7" r:id="rId12" location="" tooltip="" display="[https://drive.google.com/file/d/1hl6d9iMoFpet0_Y8u9n6TG5qcMScUp57/view?usp=drive_link]"/>
+    <hyperlink ref="D8" r:id="rId13" location="" tooltip="" display="https://drive.google.com/file/d/1aLPJ8nP2MiZ05vM0NWuQeG-SZeJBvyzr/view?usp=drive_link"/>
+    <hyperlink ref="E8" r:id="rId14" location="" tooltip="" display="https://drive.google.com/file/d/1bu0i_GUWKQgUyzc59KgBOZ1rC6xyEN3B/view?usp=drive_link"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/stone-list/src/assets/StoneList.xlsx
+++ b/stone-list/src/assets/StoneList.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -311,7 +311,7 @@
     <t>Ruby Necklace</t>
   </si>
   <si>
-    <t>Natural (33 pieces) some are Red &amp; some are Pigeon Blood color</t>
+    <t>Natural (29 pieces) some are Red &amp; some are Pigeon Blood color</t>
   </si>
   <si>
     <t>USD - 4 millions</t>
@@ -357,22 +357,48 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>[https://drive.google.com/file/d/1DEzki2S9Li3F5Mvemfvff9f1d5E7fXla/view?usp=drive_link,https://drive.google.com/file/d/10JuVMemSYJq9w5ZslPGaHNr8ar2M9Y0O/view?usp=drive_link]</t>
+    </r>
+  </si>
+  <si>
+    <t>Tourmaline</t>
+  </si>
+  <si>
+    <t>Natural, 3738 carats</t>
+  </si>
+  <si>
+    <t>USD - 25000</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
         <u val="single"/>
         <sz val="10"/>
         <color indexed="11"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>[https://drive.google.com/file/d/1hl6d9iMoFpet0_Y8u9n6TG5qcMScUp57/view?usp=drive_link]</t>
-    </r>
-  </si>
-  <si>
-    <t>Tourmaline</t>
-  </si>
-  <si>
-    <t>Natural, 3738 carats</t>
-  </si>
-  <si>
-    <t>USD - 25000</t>
+      <t>https://drive.google.com/file/d/1aLPJ8nP2MiZ05vM0NWuQeG-SZeJBvyzr/view?usp=drive_link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>]</t>
+    </r>
   </si>
   <si>
     <r>
@@ -390,7 +416,7 @@
         <color indexed="11"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>https://drive.google.com/file/d/1aLPJ8nP2MiZ05vM0NWuQeG-SZeJBvyzr/view?usp=drive_link</t>
+      <t>https://drive.google.com/file/d/1bu0i_GUWKQgUyzc59KgBOZ1rC6xyEN3B/view?usp=drive_link</t>
     </r>
     <r>
       <rPr>
@@ -402,6 +428,12 @@
     </r>
   </si>
   <si>
+    <t>Natural Ruby, 78.76 carats</t>
+  </si>
+  <si>
+    <t>USD - 500000</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -417,7 +449,151 @@
         <color indexed="11"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>https://drive.google.com/file/d/1bu0i_GUWKQgUyzc59KgBOZ1rC6xyEN3B/view?usp=drive_link</t>
+      <t>https://drive.google.com/file/d/1IGIzlU-V5X0CMA1CZO41ktVUloZSDjK5/view?usp=drive_link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://drive.google.com/file/d/1q4NQ3DhYQG9KhF89RtgZ3OTClE9gxdTT/view?usp=drive_link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>Sapphire (Kashmir)</t>
+  </si>
+  <si>
+    <t>Natural, 12.367 carats</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://drive.google.com/file/d/17Ycmz3BZiH0j5PaJLdmj8Yv_wkN-K4b9/view?usp=drive_link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://drive.google.com/file/d/17I4_dT3QRblJwHEpQE-uh8qmGRCUbgD7/view?usp=drive_link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>Natural Ruby(Pinkish-red), 39.35 carats</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://drive.google.com/file/d/1xKVscEoa5tXAi_bvBQBE7INRw_rGiHly/view?usp=drive_link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://drive.google.com/file/d/1mXSw3uud5SNsJ8yokBc9S3gVFjmXM2gL/view?usp=drive_link</t>
     </r>
     <r>
       <rPr>
@@ -479,7 +655,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -539,13 +715,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -578,6 +816,24 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1631,7 +1887,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1789,6 +2045,60 @@
       </c>
       <c r="F8" s="6"/>
     </row>
+    <row r="9" ht="13.65" customHeight="1">
+      <c r="A9" t="s" s="11">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s" s="12">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s" s="12">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s" s="12">
+        <v>42</v>
+      </c>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" ht="13.65" customHeight="1">
+      <c r="A10" t="s" s="14">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s" s="15">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s" s="15">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s" s="15">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s" s="15">
+        <v>46</v>
+      </c>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" ht="13.65" customHeight="1">
+      <c r="A11" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s" s="5">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s" s="5">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s" s="5">
+        <v>49</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" location="" tooltip="" display="[https://drive.google.com/file/d/163WaD1wRvTiDKuQ9kv49WbAxvxx6UvuJ/view?usp=drive_link]"/>
@@ -1802,9 +2112,15 @@
     <hyperlink ref="E6" r:id="rId9" location="" tooltip="" display="[https://drive.google.com/file/d/1tST6Mu0bNJZRZV4utlJh13deM-gYRRSL/view?usp=drive_link,https://drive.google.com/file/d/13_NA1H8t85PFXONh5AN9Ti7RbbM3EKcE/view?usp=drive_link]"/>
     <hyperlink ref="D7" r:id="rId10" location="" tooltip="" display="[https://drive.google.com/file/d/1wBiiQ9sF0-rWSixLS3qtCamImi_FIiKi/view?usp=drive_link]"/>
     <hyperlink ref="E7" r:id="rId11" location="" tooltip="" display="[https://drive.google.com/file/d/1k9fM7cg01YITiitPDL6Jda50TLNYT0NO/view?usp=drive_link]"/>
-    <hyperlink ref="F7" r:id="rId12" location="" tooltip="" display="[https://drive.google.com/file/d/1hl6d9iMoFpet0_Y8u9n6TG5qcMScUp57/view?usp=drive_link]"/>
-    <hyperlink ref="D8" r:id="rId13" location="" tooltip="" display="https://drive.google.com/file/d/1aLPJ8nP2MiZ05vM0NWuQeG-SZeJBvyzr/view?usp=drive_link"/>
-    <hyperlink ref="E8" r:id="rId14" location="" tooltip="" display="https://drive.google.com/file/d/1bu0i_GUWKQgUyzc59KgBOZ1rC6xyEN3B/view?usp=drive_link"/>
+    <hyperlink ref="F7" r:id="rId12" location="" tooltip="" display="[https://drive.google.com/file/d/1DEzki2S9Li3F5Mvemfvff9f1d5E7fXla/view?usp=drive_link,https://drive.google.com/file/d/10JuVMemSYJq9w5ZslPGaHNr8ar2M9Y0O/view?usp=drive_link]"/>
+    <hyperlink ref="D8" r:id="rId13" location="" tooltip="" display="[https://drive.google.com/file/d/1aLPJ8nP2MiZ05vM0NWuQeG-SZeJBvyzr/view?usp=drive_link]"/>
+    <hyperlink ref="E8" r:id="rId14" location="" tooltip="" display="[https://drive.google.com/file/d/1bu0i_GUWKQgUyzc59KgBOZ1rC6xyEN3B/view?usp=drive_link]"/>
+    <hyperlink ref="D9" r:id="rId15" location="" tooltip="" display="[https://drive.google.com/file/d/1IGIzlU-V5X0CMA1CZO41ktVUloZSDjK5/view?usp=drive_link]"/>
+    <hyperlink ref="E9" r:id="rId16" location="" tooltip="" display="[https://drive.google.com/file/d/1q4NQ3DhYQG9KhF89RtgZ3OTClE9gxdTT/view?usp=drive_link]"/>
+    <hyperlink ref="D10" r:id="rId17" location="" tooltip="" display="[https://drive.google.com/file/d/17Ycmz3BZiH0j5PaJLdmj8Yv_wkN-K4b9/view?usp=drive_link]"/>
+    <hyperlink ref="E10" r:id="rId18" location="" tooltip="" display="[https://drive.google.com/file/d/17I4_dT3QRblJwHEpQE-uh8qmGRCUbgD7/view?usp=drive_link]"/>
+    <hyperlink ref="D11" r:id="rId19" location="" tooltip="" display="https://drive.google.com/file/d/1xKVscEoa5tXAi_bvBQBE7INRw_rGiHly/view?usp=drive_link"/>
+    <hyperlink ref="E11" r:id="rId20" location="" tooltip="" display="https://drive.google.com/file/d/1mXSw3uud5SNsJ8yokBc9S3gVFjmXM2gL/view?usp=drive_link"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
